--- a/NVO Archivo.xlsx
+++ b/NVO Archivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aure/Documents/Experimentación IA/AlertIA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34566830-BC7A-2744-B69D-E68571B5A1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD0D31-03D8-0649-A2EC-18985DFD9EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="213">
   <si>
     <t>Matriz de obligaciones (plantilla con lógica de fechas)</t>
   </si>
@@ -406,9 +406,6 @@
     <t>Requerimiento (ejemplo 13)</t>
   </si>
   <si>
-    <t>Comité de Auditoría / Comité de Administración Integral de Riesgos</t>
-  </si>
-  <si>
     <t>2 días hábiles siguientes a la fecha en que hayan detectado los citados incumplimientos</t>
   </si>
   <si>
@@ -670,10 +667,13 @@
     <t>OB-CNBV-13</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>Subestatus</t>
+  </si>
+  <si>
+    <t>Aurelio</t>
+  </si>
+  <si>
+    <t>Comité</t>
   </si>
 </sst>
 </file>
@@ -1259,9 +1259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="4" spans="1:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>2</v>
@@ -1397,39 +1397,39 @@
         <v>19</v>
       </c>
       <c r="T4" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="V4" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="U4" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="V4" s="17" t="s">
-        <v>174</v>
-      </c>
       <c r="W4" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="X4" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="X4" s="17" t="s">
-        <v>193</v>
-      </c>
       <c r="Y4" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA4" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB4" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AC4" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -1485,13 +1485,13 @@
       </c>
       <c r="S5" s="1"/>
       <c r="T5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1500,13 +1500,13 @@
         <v>46106</v>
       </c>
       <c r="AA5" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC5" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -1550,7 +1550,7 @@
         <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>42</v>
@@ -1567,13 +1567,13 @@
       </c>
       <c r="S6" s="1"/>
       <c r="T6" t="s">
+        <v>193</v>
+      </c>
+      <c r="U6" t="s">
         <v>194</v>
       </c>
-      <c r="U6" t="s">
-        <v>195</v>
-      </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W6" s="11">
         <v>46143</v>
@@ -1588,13 +1588,13 @@
         <v>46228</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB6" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC6" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
         <v>48</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>50</v>
@@ -1652,13 +1652,13 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" t="s">
+        <v>193</v>
+      </c>
+      <c r="U7" t="s">
         <v>194</v>
       </c>
-      <c r="U7" t="s">
-        <v>195</v>
-      </c>
       <c r="V7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W7" s="11">
         <v>46054</v>
@@ -1673,13 +1673,13 @@
         <v>46132</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB7" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC7" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -1737,13 +1737,13 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y8" s="11">
         <v>46082</v>
@@ -1752,13 +1752,13 @@
         <v>46113</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC8" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -1799,7 +1799,7 @@
         <v>58</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>59</v>
@@ -1816,13 +1816,13 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W9" s="11">
         <v>46037</v>
@@ -1837,13 +1837,13 @@
         <v>46101</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC9" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -1901,13 +1901,13 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y10" s="11">
         <v>46051</v>
@@ -1916,13 +1916,13 @@
         <v>46073</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC10" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -1980,25 +1980,25 @@
       </c>
       <c r="S11" s="1"/>
       <c r="T11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X11" s="11">
         <v>46034</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB11" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC11" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,25 +2056,25 @@
       </c>
       <c r="S12" s="1"/>
       <c r="T12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W12" s="11">
         <v>46054</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB12" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC12" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,25 +2132,25 @@
       </c>
       <c r="S13" s="1"/>
       <c r="T13" t="s">
+        <v>193</v>
+      </c>
+      <c r="U13" t="s">
         <v>194</v>
       </c>
-      <c r="U13" t="s">
-        <v>195</v>
-      </c>
       <c r="V13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y13" s="11">
         <v>46037</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB13" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC13" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,25 +2208,25 @@
       </c>
       <c r="S14" s="1"/>
       <c r="T14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z14" s="11">
         <v>46047</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB14" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC14" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -2284,25 +2284,25 @@
       </c>
       <c r="S15" s="1"/>
       <c r="T15" t="s">
+        <v>198</v>
+      </c>
+      <c r="U15" t="s">
         <v>199</v>
       </c>
-      <c r="U15" t="s">
-        <v>200</v>
-      </c>
       <c r="V15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W15" s="11">
         <v>46054</v>
       </c>
       <c r="AA15" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB15" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC15" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -2360,31 +2360,28 @@
       </c>
       <c r="S16" s="1"/>
       <c r="T16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y16" s="11">
         <v>46042</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB16" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC16" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AC16" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
+    </row>
+    <row r="17" spans="2:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>112</v>
       </c>
@@ -2395,7 +2392,7 @@
         <v>120</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>121</v>
@@ -2410,7 +2407,7 @@
         <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>29</v>
@@ -2425,7 +2422,7 @@
         <v>31</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P17" s="8">
         <v>46044</v>
@@ -2439,13 +2436,13 @@
       </c>
       <c r="S17" s="1"/>
       <c r="T17" t="s">
+        <v>193</v>
+      </c>
+      <c r="U17" t="s">
         <v>194</v>
       </c>
-      <c r="U17" t="s">
-        <v>195</v>
-      </c>
       <c r="V17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y17" s="11">
         <v>46034</v>
@@ -2454,16 +2451,16 @@
         <v>46037</v>
       </c>
       <c r="AA17" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB17" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC17" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AC17" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2471,7 +2468,7 @@
         <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>85</v>
@@ -2480,7 +2477,7 @@
         <v>115</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>56</v>
@@ -2489,7 +2486,7 @@
         <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>28</v>
@@ -2504,7 +2501,7 @@
         <v>68</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P18" s="8">
         <v>46043</v>
@@ -2518,36 +2515,36 @@
       </c>
       <c r="S18" s="1"/>
       <c r="T18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z18" s="11">
         <v>46078</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB18" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC18" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AC18" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>53</v>
@@ -2556,7 +2553,7 @@
         <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>95</v>
@@ -2580,7 +2577,7 @@
         <v>49</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P19" s="8">
         <v>46042</v>
@@ -2594,42 +2591,42 @@
       </c>
       <c r="S19" s="1"/>
       <c r="T19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB19" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC19" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AC19" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:29" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>56</v>
@@ -2653,7 +2650,7 @@
         <v>49</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P20" s="8">
         <v>46023</v>
@@ -2667,22 +2664,22 @@
       </c>
       <c r="S20" s="1"/>
       <c r="T20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA20" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB20" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC20" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="AC20" s="12" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2787,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1">
         <v>2026</v>
@@ -2799,22 +2796,22 @@
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2822,7 +2819,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" ref="C4:C15" si="0">IF(WEEKDAY(EOMONTH(DATE($B$1,$A4,1),0),2)&gt;5,EOMONTH(DATE($B$1,$A4,1),0)-(WEEKDAY(EOMONTH(DATE($B$1,$A4,1),0),2)-5),EOMONTH(DATE($B$1,$A4,1),0))</f>
@@ -2846,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
@@ -2870,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
@@ -2894,7 +2891,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
@@ -2918,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
@@ -2942,7 +2939,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
@@ -2966,7 +2963,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
@@ -2990,7 +2987,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="0"/>
@@ -3014,7 +3011,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="0"/>
@@ -3038,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="0"/>
@@ -3062,7 +3059,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="0"/>
@@ -3086,7 +3083,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="0"/>
@@ -3132,7 +3129,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>14</v>
@@ -3141,13 +3138,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>10</v>
@@ -3164,7 +3161,7 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>99</v>
@@ -3181,13 +3178,13 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>105</v>
@@ -3201,7 +3198,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
         <v>110</v>
@@ -3209,10 +3206,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
         <v>164</v>
-      </c>
-      <c r="D5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3220,7 +3217,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3228,17 +3225,17 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
